--- a/guru/data_nilai_siswa.xlsx
+++ b/guru/data_nilai_siswa.xlsx
@@ -1222,7 +1222,7 @@
         <v>85</v>
       </c>
       <c r="CV7" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:100">
